--- a/public/static/excel/outgoingFee.xlsx
+++ b/public/static/excel/outgoingFee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19215" windowHeight="7590"/>
+    <workbookView windowWidth="19455" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,11 +82,26 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
+          <t>注意
+1、合单一定要填入
+2、其它无需填
+3、分摊规则参考运单收入里面相关信息</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
           <t>必填</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -176,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -188,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -226,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -257,7 +272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>序号</t>
   </si>
@@ -271,6 +286,9 @@
     <t>中转单号</t>
   </si>
   <si>
+    <t>运费分摊</t>
+  </si>
+  <si>
     <t>中转成本合计</t>
   </si>
   <si>
@@ -313,10 +331,10 @@
     <t>小箱数量</t>
   </si>
   <si>
-    <t>11912310325</t>
-  </si>
-  <si>
-    <t>YT10000-1000</t>
+    <t>T-100</t>
+  </si>
+  <si>
+    <t>按重量占比分摊</t>
   </si>
   <si>
     <t>450</t>
@@ -343,10 +361,13 @@
     <t>12</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>0.5</t>
   </si>
   <si>
     <t>3</t>
@@ -358,11 +379,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,6 +408,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -401,6 +428,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -409,46 +483,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,75 +558,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -545,187 +572,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,6 +763,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -763,6 +825,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -786,56 +863,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -844,10 +871,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -856,137 +883,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1001,6 +1028,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1324,10 +1354,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1335,19 +1365,19 @@
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="10.125" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
-    <col min="12" max="15" width="16.75" customWidth="1"/>
-    <col min="16" max="16" width="12.125" customWidth="1"/>
-    <col min="17" max="17" width="13.75" customWidth="1"/>
-    <col min="18" max="18" width="13.25" customWidth="1"/>
+    <col min="4" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="11" max="11" width="12.125" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="13" max="16" width="16.75" customWidth="1"/>
+    <col min="17" max="17" width="12.125" customWidth="1"/>
+    <col min="18" max="18" width="13.75" customWidth="1"/>
+    <col min="19" max="19" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:18">
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:19">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1360,13 +1390,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1402,17 +1432,16 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:18">
+    <row r="2" s="2" customFormat="1" spans="1:19">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1440,49 +1469,59 @@
       <c r="L2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5" t="s">
+      <c r="O2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="5" t="s">
+      <c r="P2" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="Q2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="16:18">
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+    <row r="3" spans="17:19">
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
     </row>
-    <row r="4" spans="16:18">
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
+    <row r="4" spans="17:19">
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
     </row>
-    <row r="5" spans="16:18">
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+    <row r="5" spans="17:19">
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
     </row>
-    <row r="6" spans="16:18">
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
+    <row r="6" spans="17:19">
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
     </row>
-    <row r="7" spans="16:18">
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
+    <row r="7" spans="17:19">
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+      <formula1>"无,按运单占比分摊,按费用占比分摊,按件数占比分摊,按重量占比分摊,按体积占比分摊"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
